--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,34 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studia Project\TgBotRelect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="13950" windowHeight="7890"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Паспорт обьекта</t>
+  </si>
+  <si>
+    <t>Заказ</t>
+  </si>
+  <si>
+    <t>Аудио</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Нет файла</t>
+  </si>
+  <si>
+    <t>Ожидание</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +76,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,61 +378,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Паспорт обьекта</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Заказ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Аудио</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Статус</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Нет файла</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ожидание</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,63 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studia Project\TgBotRelect\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="13950" windowHeight="7890"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="690" windowWidth="13950" windowHeight="7890" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Паспорт обьекта</t>
-  </si>
-  <si>
-    <t>Заказ</t>
-  </si>
-  <si>
-    <t>Аудио</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Нет файла</t>
-  </si>
-  <si>
-    <t>Ожидание</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -378,45 +407,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.28515625" customWidth="1" min="2" max="2"/>
+    <col width="11.7109375" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Паспорт обьекта</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Заказ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Аудио</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Нет файла</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123
+124
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_19.txt, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123
+124
+Закончить
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_19.txt, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123
+124
+Закончить
+Закончить
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_19.txt, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123
+test
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_21.txt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we
+we
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Нет файлов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>йцу</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">йцу
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_22.txt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qwe
+qwe
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_23.xlsx, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_24.pdf</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qwe
+qwe
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_25.xlsx, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_26.txt</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Училище олип. Резерва</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.
+2.
+3.
+4.
+5.
+6.
+7.
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Нет файлов</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Нет файлов</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="690" windowWidth="13950" windowHeight="7890" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,305 +413,268 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.28515625" customWidth="1" min="2" max="2"/>
-    <col width="11.7109375" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Номер заказа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Паспорт обьекта</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Заказ</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Аудио</t>
+          <t>Адрес</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>Подсистема</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Текст заказа</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Файлы</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Статус</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="A2" t="n">
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Паспорт тест</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нет файла</t>
+          <t>Адрес тест</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ожидание</t>
+          <t>Подсистема тест</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Текст 1
+Текст 1
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/voice/file_33.oga, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/video_notes/file_34.mp4</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1233</t>
-        </is>
+      <c r="A3" t="n">
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-124
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ВО4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>усиление</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Балка дерево/железо 20 Б1 -10шт
+прошу срочно отправить на обьект
+закончить
 </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_19.txt, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Нет файлов</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Ожидание</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1233</t>
-        </is>
+      <c r="A4" t="n">
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-124
-Закончить
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Войнов 6/2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Балка дерево/железо 20 Б1 -10шт
+прошу срочно отправить на обьект
+закончить
+Кабель
+Бла бла бла
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_19.txt, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Нет файлов</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Ожидание</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1233</t>
-        </is>
+      <c r="A5" t="n">
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-124
-Закончить
-Закончить
+          <t>1435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Войнов Освободителей 6/2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Усиление</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Балка дерево/железо 20 Б1 -10шт
+прошу срочно отправить на обьект
+закончить
+Кабель
+Бла бла бла
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_19.txt, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_35.jpg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Ожидание</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="A6" t="n">
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-test
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>qe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qwe
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_20.jpg, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_21.txt</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_36.jpg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Ожидание</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
+      <c r="A7" t="n">
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">we
-we
+          <t>1249</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Азовстальская 45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Электрика</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qwe
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Нет файлов</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ожидание</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>йцу</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">йцу
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_22.txt</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ожидание</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">qwe
-qwe
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_23.xlsx, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_24.pdf</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ожидание</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">qwe
-qwe
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_25.xlsx, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/documents/file_26.txt</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ожидание</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Училище олип. Резерва</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.
-2.
-3.
-4.
-5.
-6.
-7.
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Нет файлов</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ожидание</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/start</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.
-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Нет файлов</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_36.jpg, https://api.telegram.org/file/bot7037338775:AAFwN_SkX-MWVzfqE0OBfwEX3BYEeMm24yA/photos/file_35.jpg</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Ожидание</t>
         </is>
